--- a/PC Repair.xlsx
+++ b/PC Repair.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCenter-Dennis\Documents\GitHub\PC-Troubleshooting-Repair-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\GitHub\PC-Troubleshooting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>PC Troubleshooting &amp; Repair Documentation</t>
-  </si>
-  <si>
-    <t>gututu</t>
   </si>
 </sst>
 </file>
@@ -358,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -377,11 +374,6 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/PC Repair.xlsx
+++ b/PC Repair.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\GitHub\PC-Troubleshooting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCenter-Dennis\Documents\GitHub\PC-Troubleshooting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PC Troubleshooting &amp; Repair Documentation</t>
+  </si>
+  <si>
+    <t>hesihgighesighsigh</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -374,6 +377,11 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
